--- a/7/3/4/Mercado Local 2008 a 2021 - Trimestral.xlsx
+++ b/7/3/4/Mercado Local 2008 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>Serie</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4272,13 +4275,13 @@
         <v>559</v>
       </c>
       <c r="E53">
-        <v>73600</v>
+        <v>73393</v>
       </c>
       <c r="F53">
         <v>29333</v>
       </c>
       <c r="G53">
-        <v>44266</v>
+        <v>44060</v>
       </c>
       <c r="H53">
         <v>7529</v>
@@ -4317,16 +4320,87 @@
         <v>148</v>
       </c>
       <c r="T53">
-        <v>177523</v>
+        <v>177316</v>
       </c>
       <c r="U53">
         <v>54608</v>
       </c>
       <c r="V53">
-        <v>122915</v>
+        <v>122708</v>
       </c>
       <c r="W53">
-        <v>240643</v>
+        <v>240426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54">
+        <v>31868</v>
+      </c>
+      <c r="C54">
+        <v>31300</v>
+      </c>
+      <c r="D54">
+        <v>568</v>
+      </c>
+      <c r="E54">
+        <v>70629</v>
+      </c>
+      <c r="F54">
+        <v>26872</v>
+      </c>
+      <c r="G54">
+        <v>43757</v>
+      </c>
+      <c r="H54">
+        <v>7454</v>
+      </c>
+      <c r="I54">
+        <v>309</v>
+      </c>
+      <c r="J54">
+        <v>7145</v>
+      </c>
+      <c r="K54">
+        <v>24049</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>24045</v>
+      </c>
+      <c r="N54">
+        <v>51620</v>
+      </c>
+      <c r="O54">
+        <v>3711</v>
+      </c>
+      <c r="P54">
+        <v>47909</v>
+      </c>
+      <c r="Q54">
+        <v>149</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>149</v>
+      </c>
+      <c r="T54">
+        <v>185769</v>
+      </c>
+      <c r="U54">
+        <v>62195</v>
+      </c>
+      <c r="V54">
+        <v>123573</v>
+      </c>
+      <c r="W54">
+        <v>252513</v>
       </c>
     </row>
   </sheetData>
